--- a/Stocks/WIPRO.xlsx
+++ b/Stocks/WIPRO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>495.18333333333334</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>292.98161879785664</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>286.51714828944347</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>73.621032500991291</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.60000000000002274</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>4.6999999999999886</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.12765957446809026</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>293.32061833485136</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-7.1749633721111081</v>
       </c>
       <c r="Y67">
         <v>-15.040142720784075</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>290</v>
+      </c>
+      <c r="D83">
+        <v>291.8</v>
+      </c>
+      <c r="E83">
+        <v>289.7</v>
+      </c>
+      <c r="F83">
+        <v>290.8</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>290.76666666666665</v>
+      </c>
+      <c r="H83">
+        <v>290.40797981189166</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>291.53655695724626</v>
+      </c>
+      <c r="K83">
+        <v>288.60449817153432</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>68.255102024733532</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.52380952380952894</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>289.15902952705898</v>
+      </c>
+      <c r="W83">
+        <v>290.33033793864917</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-1.1713084115901893</v>
+      </c>
+      <c r="Y83">
+        <v>-2.4976175849131144</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>290.8</v>
+      </c>
+      <c r="D84">
+        <v>292</v>
+      </c>
+      <c r="E84">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="F84">
+        <v>290.85000000000002</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>290.98333333333335</v>
+      </c>
+      <c r="H84">
+        <v>290.69565657261251</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>291.63954430008044</v>
+      </c>
+      <c r="K84">
+        <v>288.93683191119334</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>68.698767313978593</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.39473684210526788</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>289.41917883058835</v>
+      </c>
+      <c r="W84">
+        <v>290.36883142467514</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-0.94965259408678548</v>
+      </c>
+      <c r="Y84">
+        <v>-2.1880245867478485</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>291.45</v>
+      </c>
+      <c r="D85">
+        <v>292</v>
+      </c>
+      <c r="E85">
+        <v>290.60000000000002</v>
+      </c>
+      <c r="F85">
+        <v>290.75</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>291.11666666666667</v>
+      </c>
+      <c r="H85">
+        <v>290.90616161963959</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>291.71964556672924</v>
+      </c>
+      <c r="K85">
+        <v>289.30642481981704</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>66.379475774410935</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.14999999999997726</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.10714285714284265</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>289.62392054895935</v>
+      </c>
+      <c r="W85">
+        <v>290.39706613395845</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-0.77314558499909936</v>
+      </c>
+      <c r="Y85">
+        <v>-1.9050487863980987</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>295</v>
+      </c>
+      <c r="D86">
+        <v>300.5</v>
+      </c>
+      <c r="E86">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="F86">
+        <v>297.85000000000002</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>297.48333333333335</v>
+      </c>
+      <c r="H86">
+        <v>294.19474747648644</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>293.6708354407894</v>
+      </c>
+      <c r="K86">
+        <v>290.37166374874658</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>91.586934012365177</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>6.3999999999999773</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.58593750000000211</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>290.88947123373481</v>
+      </c>
+      <c r="W86">
+        <v>290.94913530922076</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-5.9664075485954982E-2</v>
+      </c>
+      <c r="Y86">
+        <v>-1.53597184421567</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>298</v>
+      </c>
+      <c r="D87">
+        <v>298.3</v>
+      </c>
+      <c r="E87">
+        <v>295.8</v>
+      </c>
+      <c r="F87">
+        <v>296</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>296.7</v>
+      </c>
+      <c r="H87">
+        <v>295.44737373824319</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>294.69953867616954</v>
+      </c>
+      <c r="K87">
+        <v>291.57796069346955</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>73.611025926970044</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>7.999999999999545E-2</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>291.67570642854486</v>
+      </c>
+      <c r="W87">
+        <v>291.32327343446366</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>0.3524329940811981</v>
+      </c>
+      <c r="Y87">
+        <v>-1.1582908765562965</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>296.95</v>
+      </c>
+      <c r="D88">
+        <v>298</v>
+      </c>
+      <c r="E88">
+        <v>295.7</v>
+      </c>
+      <c r="F88">
+        <v>297.5</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>297.06666666666666</v>
+      </c>
+      <c r="H88">
+        <v>296.2570202024549</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>295.43297452590963</v>
+      </c>
+      <c r="K88">
+        <v>292.4939694282541</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>77.989449441978152</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.78260869565217495</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>292.57175159338414</v>
+      </c>
+      <c r="W88">
+        <v>291.78080873561447</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>0.79094285776966444</v>
+      </c>
+      <c r="Y88">
+        <v>-0.76844412969110421</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>297.39999999999998</v>
+      </c>
+      <c r="D89">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="E89">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="F89">
+        <v>297.55</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>297.45</v>
+      </c>
+      <c r="H89">
+        <v>296.85351010122747</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>296.09231352015195</v>
+      </c>
+      <c r="K89">
+        <v>293.3619762219754</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>78.140569759509233</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000341</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.57500000000001705</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>293.33763596363275</v>
+      </c>
+      <c r="W89">
+        <v>292.20815623668005</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>1.1294797269526953</v>
+      </c>
+      <c r="Y89">
+        <v>-0.38885935836234431</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>297</v>
+      </c>
+      <c r="D90">
+        <v>297.89999999999998</v>
+      </c>
+      <c r="E90">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="F90">
+        <v>297.45</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>297.15000000000003</v>
+      </c>
+      <c r="H90">
+        <v>297.00175505061372</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>296.49402162678484</v>
+      </c>
+      <c r="K90">
+        <v>293.97042595042529</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>76.821956842401562</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1.3499999999999659</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>1.7999999999999545</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.75</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>293.97030735384311</v>
+      </c>
+      <c r="W90">
+        <v>292.59644095988892</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>1.373866393954188</v>
+      </c>
+      <c r="Y90">
+        <v>-3.6314207899037831E-2</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>298</v>
+      </c>
+      <c r="D91">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E91">
+        <v>297.5</v>
+      </c>
+      <c r="F91">
+        <v>299</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>298.8</v>
+      </c>
+      <c r="H91">
+        <v>297.9008775253069</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>297.25090570972156</v>
+      </c>
+      <c r="K91">
+        <v>294.75477573921967</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>82.532854736497185</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.62500000000000588</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>294.74410622248263</v>
+      </c>
+      <c r="W91">
+        <v>293.0707786665638</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>1.6733275559188314</v>
+      </c>
+      <c r="Y91">
+        <v>0.30561414486453609</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>300</v>
+      </c>
+      <c r="D92">
+        <v>301.7</v>
+      </c>
+      <c r="E92">
+        <v>298.5</v>
+      </c>
+      <c r="F92">
+        <v>301.14999999999998</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>300.45</v>
+      </c>
+      <c r="H92">
+        <v>299.17543876265347</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>298.23959332978342</v>
+      </c>
+      <c r="K92">
+        <v>295.58704779717084</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>87.761360114898594</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.6499999999999773</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.82812499999999578</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>295.72962834210068</v>
+      </c>
+      <c r="W92">
+        <v>293.66923950607759</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>2.060388836023094</v>
+      </c>
+      <c r="Y92">
+        <v>0.65656908309624762</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>298.85000000000002</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>299.7</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>300.10000000000002</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>300.5</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="D93">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="E93">
+        <v>300.25</v>
+      </c>
+      <c r="F93">
+        <v>301.7</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>301.7833333333333</v>
+      </c>
+      <c r="H93">
+        <v>300.47938604799339</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>299.38635036760934</v>
+      </c>
+      <c r="K93">
+        <v>296.62325939779953</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>88.83047544480786</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>3.1499999999999773</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.46031746031746001</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>296.6481470587006</v>
+      </c>
+      <c r="W93">
+        <v>294.26411065377556</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>2.3840364049250411</v>
+      </c>
+      <c r="Y93">
+        <v>1.0020625474620064</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="D94">
+        <v>302.89999999999998</v>
+      </c>
+      <c r="E94">
+        <v>297.5</v>
+      </c>
+      <c r="F94">
+        <v>297.95</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>299.45</v>
+      </c>
+      <c r="H94">
+        <v>299.96469302399669</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>300.16716139702947</v>
+      </c>
+      <c r="K94">
+        <v>296.81809064273295</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>50.92004223510024</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>8.333333333333158E-2</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>296.8484321265928</v>
+      </c>
+      <c r="W94">
+        <v>294.53713949423661</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>2.3112926323561851</v>
+      </c>
+      <c r="Y94">
+        <v>1.2639085644408421</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="D95">
+        <v>299.7</v>
+      </c>
+      <c r="E95">
+        <v>295.3</v>
+      </c>
+      <c r="F95">
+        <v>297.25</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>297.41666666666669</v>
+      </c>
+      <c r="H95">
+        <v>298.69067984533172</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>300.06334775324513</v>
+      </c>
+      <c r="K95">
+        <v>296.48073716657007</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>46.308615212010587</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.4431818181818179</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>296.9102117994247</v>
+      </c>
+      <c r="W95">
+        <v>294.73809212429313</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>2.1721196751315688</v>
+      </c>
+      <c r="Y95">
+        <v>1.4455507865789874</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>281.5</v>
+      </c>
+      <c r="D96">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="E96">
+        <v>281.2</v>
+      </c>
+      <c r="F96">
+        <v>283.25</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>284.45</v>
+      </c>
+      <c r="H96">
+        <v>291.57033992266588</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>297.58260380807951</v>
+      </c>
+      <c r="K96">
+        <v>293.08501779622117</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>14.187458009759668</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.0500000000000114</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.2662337662337681</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>294.80864075335938</v>
+      </c>
+      <c r="W96">
+        <v>293.88712233730848</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>0.92151841605090112</v>
+      </c>
+      <c r="Y96">
+        <v>1.3407443124733702</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>287</v>
+      </c>
+      <c r="D97">
+        <v>287.25</v>
+      </c>
+      <c r="E97">
+        <v>281.64999999999998</v>
+      </c>
+      <c r="F97">
+        <v>286.05</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>284.98333333333335</v>
+      </c>
+      <c r="H97">
+        <v>288.27683662799961</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>295.28646962850627</v>
+      </c>
+      <c r="K97">
+        <v>290.54390273039422</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>26.868971264022473</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>4.4000000000000341</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>5.6000000000000227</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.78571428571428859</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>293.46115756053484</v>
+      </c>
+      <c r="W97">
+        <v>293.30659475676714</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>0.15456280376770337</v>
+      </c>
+      <c r="Y97">
+        <v>1.1035080107322368</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>283.5</v>
+      </c>
+      <c r="D98">
+        <v>290</v>
+      </c>
+      <c r="E98">
+        <v>283.5</v>
+      </c>
+      <c r="F98">
+        <v>289.14999999999998</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>287.55</v>
+      </c>
+      <c r="H98">
+        <v>287.91341831399984</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>294.11169859994931</v>
+      </c>
+      <c r="K98">
+        <v>288.97859101252885</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>39.286122208082134</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>5.6499999999999773</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.8692307692307657</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>292.7979025512218</v>
+      </c>
+      <c r="W98">
+        <v>292.99869884885845</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-0.20079629763665707</v>
+      </c>
+      <c r="Y98">
+        <v>0.84264714905845794</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>289.3</v>
+      </c>
+      <c r="D99">
+        <v>291.45</v>
+      </c>
+      <c r="E99">
+        <v>287.5</v>
+      </c>
+      <c r="F99">
+        <v>289</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>289.31666666666666</v>
+      </c>
+      <c r="H99">
+        <v>288.61504249033328</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>293.52021002218277</v>
+      </c>
+      <c r="K99">
+        <v>288.6500152319669</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>38.886764868860119</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.37974683544303905</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>292.21360985103382</v>
+      </c>
+      <c r="W99">
+        <v>292.70249893412819</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-0.48888908309436374</v>
+      </c>
+      <c r="Y99">
+        <v>0.57633990262789359</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>288.85000000000002</v>
+      </c>
+      <c r="D100">
+        <v>292.14999999999998</v>
+      </c>
+      <c r="E100">
+        <v>286.25</v>
+      </c>
+      <c r="F100">
+        <v>291.7</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>290.0333333333333</v>
+      </c>
+      <c r="H100">
+        <v>289.32418791183329</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>293.21571890614217</v>
+      </c>
+      <c r="K100">
+        <v>288.11667851375205</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>50.262702640034206</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5.4499999999999886</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.92372881355932368</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>292.13459295087478</v>
+      </c>
+      <c r="W100">
+        <v>292.62823975382241</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-0.4936468029476373</v>
+      </c>
+      <c r="Y100">
+        <v>0.36234256151278738</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>290.60000000000002</v>
+      </c>
+      <c r="D101">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="E101">
+        <v>289.7</v>
+      </c>
+      <c r="F101">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>291.49999999999994</v>
+      </c>
+      <c r="H101">
+        <v>290.41209395591659</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>293.1455591492217</v>
+      </c>
+      <c r="K101">
+        <v>288.46852773291823</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>51.105433271404223</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.68749999999999889</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>292.09850172766329</v>
+      </c>
+      <c r="W101">
+        <v>292.5742960683541</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-0.47579434069081117</v>
+      </c>
+      <c r="Y101">
+        <v>0.19471518107206767</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>290.64999999999998</v>
+      </c>
+      <c r="D102">
+        <v>294.95</v>
+      </c>
+      <c r="E102">
+        <v>290.45</v>
+      </c>
+      <c r="F102">
+        <v>293.95</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>293.11666666666662</v>
+      </c>
+      <c r="H102">
+        <v>291.76438031129157</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>293.54654600495019</v>
+      </c>
+      <c r="K102">
+        <v>288.90885490338087</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N102">
+        <v>59.826673838221012</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>292.38334761571508</v>
+      </c>
+      <c r="W102">
+        <v>292.67620006329082</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-0.29285244757573992</v>
+      </c>
+      <c r="Y102">
+        <v>9.720165534250616E-2</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>293.2</v>
+      </c>
+      <c r="D103">
+        <v>294.55</v>
+      </c>
+      <c r="E103">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="F103">
+        <v>291</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>291.88333333333338</v>
+      </c>
+      <c r="H103">
+        <v>291.82385682231245</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>293.76953578162795</v>
+      </c>
+      <c r="K103">
+        <v>289.17355381374068</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>45.294228481918736</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>4.4499999999999886</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.20224719101123137</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>292.17052490560508</v>
+      </c>
+      <c r="W103">
+        <v>292.55203709563966</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-0.38151219003458436</v>
+      </c>
+      <c r="Y103">
+        <v>1.4588862670880526E-3</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>291</v>
+      </c>
+      <c r="D104">
+        <v>292.3</v>
+      </c>
+      <c r="E104">
+        <v>289.05</v>
+      </c>
+      <c r="F104">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>290.31666666666666</v>
+      </c>
+      <c r="H104">
+        <v>291.07026174448958</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>293.44297227459953</v>
+      </c>
+      <c r="K104">
+        <v>289.14609741068722</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>39.589443614683766</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>3.25</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.16923076923077274</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>291.77505953551201</v>
+      </c>
+      <c r="W104">
+        <v>292.33336768114782</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.55830814563580589</v>
+      </c>
+      <c r="Y104">
+        <v>-0.11049452011349073</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>290.64999999999998</v>
+      </c>
+      <c r="D105">
+        <v>290.8</v>
+      </c>
+      <c r="E105">
+        <v>287.3</v>
+      </c>
+      <c r="F105">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>288.75</v>
+      </c>
+      <c r="H105">
+        <v>289.91013087224479</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>292.85564510246633</v>
+      </c>
+      <c r="K105">
+        <v>288.73585354164561</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>34.039049644042713</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.84999999999996589</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.24285714285713311</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>291.21735806851018</v>
+      </c>
+      <c r="W105">
+        <v>292.02348859365537</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-0.80613052514519268</v>
+      </c>
+      <c r="Y105">
+        <v>-0.24962172111983114</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>289.64999999999998</v>
+      </c>
+      <c r="D106">
+        <v>290.25</v>
+      </c>
+      <c r="E106">
+        <v>284.89999999999998</v>
+      </c>
+      <c r="F106">
+        <v>286.39999999999998</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>287.18333333333334</v>
+      </c>
+      <c r="H106">
+        <v>288.54673210278906</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>292.27661285747382</v>
+      </c>
+      <c r="K106">
+        <v>287.88344164350212</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>28.096456219139949</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>5.3500000000000227</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.28037383177569974</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>290.47622605797017</v>
+      </c>
+      <c r="W106">
+        <v>291.60693388301422</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-1.1307078250440554</v>
+      </c>
+      <c r="Y106">
+        <v>-0.42583894190467597</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>287.25</v>
+      </c>
+      <c r="D107">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="E107">
+        <v>279.2</v>
+      </c>
+      <c r="F107">
+        <v>280.2</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>282.43333333333334</v>
+      </c>
+      <c r="H107">
+        <v>285.49003271806123</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>291.30403222247963</v>
+      </c>
+      <c r="K107">
+        <v>285.9537879449461</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>15.845528547094665</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>8.6999999999999886</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.11494252873563233</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>288.89526820289785</v>
+      </c>
+      <c r="W107">
+        <v>290.76197581760579</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-1.8667076147079342</v>
+      </c>
+      <c r="Y107">
+        <v>-0.71401267646532762</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>286.90000000000003</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>284.60000000000002</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>283.55</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>282.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
